--- a/Data/calibration.xlsx
+++ b/Data/calibration.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nofimaas-my.sharepoint.com/personal/ingrid_mage_nofima_no/Documents/Precision local/SEC/SEC pipeline sandbox/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nofimaas-my.sharepoint.com/personal/ingrid_mage_nofima_no/Documents/SEC software/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{E059A374-3C9B-46C5-A082-F93CA7C67B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23908E5E-2A2B-4A20-B8CE-2181D3F76842}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{E059A374-3C9B-46C5-A082-F93CA7C67B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F396BC-191D-4E59-A132-DEF754C110D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63250937-3596-4688-8745-7F4C7E01FA30}"/>
   </bookViews>
@@ -81,11 +81,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,17 +93,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial Nova"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial Nova"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,26 +146,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,146 +482,147 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>66000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <v>5.9165000000000001</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>44287</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>5.9416700000000002</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>29000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="2">
         <v>5.95817</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>14300</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>6.1498299999999997</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>12327</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>6.0331700000000001</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>3496</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>7.3998299999999997</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>1046</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>7.5914999999999999</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>757</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="2">
         <v>8.1415000000000006</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>570</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="2">
         <v>9.8249999999999993</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>379</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>9.5914999999999999</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -636,23 +631,39 @@
       <c r="B12" s="9">
         <v>204</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="3">
         <v>10.44983</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081D0E49579160C4DBE4A61385AB21E0F" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="0e6cd626671a97845b869e52252bc402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56c1514f-8821-4a31-a71d-640082fe2144" xmlns:ns3="fbf5e086-d5f1-480d-b35d-d22d10526ed4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3feb777252954eac7011adffaaf7e2e9" ns2:_="" ns3:_="">
     <xsd:import namespace="56c1514f-8821-4a31-a71d-640082fe2144"/>
@@ -863,22 +874,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C27E593F-6AF6-463D-9202-05083EC2EF99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18CACE1-C2BF-4395-ADBD-EF1C05A325BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180E4A07-8999-498F-87EB-16734878B7A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -895,21 +908,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18CACE1-C2BF-4395-ADBD-EF1C05A325BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C27E593F-6AF6-463D-9202-05083EC2EF99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>